--- a/deployment/Omaha_Cal_Info_GP03FLMB_00003.xlsx
+++ b/deployment/Omaha_Cal_Info_GP03FLMB_00003.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\IRAD\IRAD 2015\Programs\OOI Phase 2\Post Delivery 7 support\Asset Management Data\ingestion-csvs_20151204\ingestion-csvs\GP_mod\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2952" yWindow="2460" windowWidth="24900" windowHeight="12612" activeTab="1"/>
+    <workbookView xWindow="2955" yWindow="2460" windowWidth="24900" windowHeight="12615" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="107">
   <si>
     <t>Ref Des</t>
   </si>
@@ -239,12 +239,6 @@
     <t>GP03FLMB-RIM01-02-CTDMOH069</t>
   </si>
   <si>
-    <t>GP03FLMB-FMS01-01-ENG000000</t>
-  </si>
-  <si>
-    <t>GP03FLMB-FMM01-02-ENG000000</t>
-  </si>
-  <si>
     <t>50° 19.82' N</t>
   </si>
   <si>
@@ -342,6 +336,18 @@
   </si>
   <si>
     <t>A00870</t>
+  </si>
+  <si>
+    <t>GP03FLMA-RIS01-00-SIOENG000</t>
+  </si>
+  <si>
+    <t>GP03FLMA-RIM01-00-SIOENG000</t>
+  </si>
+  <si>
+    <t>OL000087</t>
+  </si>
+  <si>
+    <t>OL000088</t>
   </si>
 </sst>
 </file>
@@ -1598,28 +1604,28 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" style="22" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="22" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="8" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.44140625" style="8" customWidth="1"/>
-    <col min="13" max="13" width="13.44140625" style="8" customWidth="1"/>
-    <col min="14" max="14" width="12.44140625" style="8" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="8"/>
+    <col min="8" max="8" width="11.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="8" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" style="8" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="8" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" style="8" customWidth="1"/>
+    <col min="15" max="16384" width="8.85546875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="12" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="12" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="60" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>0</v>
@@ -1655,9 +1661,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="20" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>49</v>
@@ -1676,10 +1682,10 @@
       </c>
       <c r="G2" s="18"/>
       <c r="H2" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J2" s="7">
         <v>4145</v>
@@ -1697,12 +1703,12 @@
         <v>-144.39833333333334</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E3" s="41"/>
       <c r="F3" s="42"/>
       <c r="G3" s="41"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H5" s="59"/>
       <c r="I5" s="59"/>
     </row>
@@ -1722,34 +1728,34 @@
   <dimension ref="A1:P101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E91" sqref="E91:E94"/>
+      <selection pane="bottomRight" activeCell="G105" sqref="G105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="13" customWidth="1"/>
+    <col min="1" max="1" width="28.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="13" customWidth="1"/>
     <col min="5" max="5" width="11" style="13" customWidth="1"/>
     <col min="6" max="6" width="13" style="2" customWidth="1"/>
-    <col min="7" max="7" width="29.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="31" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" style="13" customWidth="1"/>
-    <col min="10" max="13" width="10.6640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="13" customWidth="1"/>
+    <col min="10" max="13" width="10.7109375" style="2" customWidth="1"/>
     <col min="14" max="14" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="2"/>
+    <col min="15" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="16" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="16" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="61" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C1" s="24" t="s">
         <v>1</v>
@@ -1758,7 +1764,7 @@
         <v>41</v>
       </c>
       <c r="E1" s="61" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F1" s="24" t="s">
         <v>2</v>
@@ -1779,7 +1785,7 @@
       <c r="N1" s="28"/>
       <c r="O1" s="28"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="29"/>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
@@ -1796,12 +1802,12 @@
       <c r="N2" s="29"/>
       <c r="O2" s="29"/>
     </row>
-    <row r="3" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="57" t="s">
         <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C3" s="43" t="s">
         <v>50</v>
@@ -1810,7 +1816,7 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F3" s="51">
         <v>1004</v>
@@ -1833,12 +1839,12 @@
       <c r="N3" s="29"/>
       <c r="O3" s="29"/>
     </row>
-    <row r="4" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="s">
         <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C4" s="44" t="s">
         <v>50</v>
@@ -1847,7 +1853,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F4" s="51">
         <v>1004</v>
@@ -1868,12 +1874,12 @@
       <c r="N4" s="29"/>
       <c r="O4" s="29"/>
     </row>
-    <row r="5" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="57" t="s">
         <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C5" s="44" t="s">
         <v>50</v>
@@ -1882,7 +1888,7 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F5" s="51">
         <v>1004</v>
@@ -1901,12 +1907,12 @@
       <c r="N5" s="29"/>
       <c r="O5" s="29"/>
     </row>
-    <row r="6" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="57" t="s">
         <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C6" s="44" t="s">
         <v>50</v>
@@ -1915,7 +1921,7 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F6" s="51">
         <v>1004</v>
@@ -1934,12 +1940,12 @@
       <c r="N6" s="29"/>
       <c r="O6" s="29"/>
     </row>
-    <row r="7" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="57" t="s">
         <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C7" s="44" t="s">
         <v>50</v>
@@ -1948,7 +1954,7 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F7" s="51">
         <v>1004</v>
@@ -1967,12 +1973,12 @@
       <c r="N7" s="29"/>
       <c r="O7" s="29"/>
     </row>
-    <row r="8" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="57" t="s">
         <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C8" s="44" t="s">
         <v>50</v>
@@ -1981,7 +1987,7 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F8" s="51">
         <v>1004</v>
@@ -2000,12 +2006,12 @@
       <c r="N8" s="29"/>
       <c r="O8" s="29"/>
     </row>
-    <row r="9" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="57" t="s">
         <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C9" s="44" t="s">
         <v>50</v>
@@ -2014,7 +2020,7 @@
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F9" s="51">
         <v>1004</v>
@@ -2035,12 +2041,12 @@
       <c r="N9" s="29"/>
       <c r="O9" s="29"/>
     </row>
-    <row r="10" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="57" t="s">
         <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C10" s="44" t="s">
         <v>50</v>
@@ -2049,7 +2055,7 @@
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F10" s="51">
         <v>1004</v>
@@ -2070,12 +2076,12 @@
       <c r="N10" s="29"/>
       <c r="O10" s="29"/>
     </row>
-    <row r="11" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="57" t="s">
         <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C11" s="44" t="s">
         <v>50</v>
@@ -2084,7 +2090,7 @@
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F11" s="51">
         <v>1004</v>
@@ -2105,12 +2111,12 @@
       <c r="N11" s="29"/>
       <c r="O11" s="29"/>
     </row>
-    <row r="12" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="57" t="s">
         <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C12" s="44" t="s">
         <v>50</v>
@@ -2119,7 +2125,7 @@
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F12" s="51">
         <v>1004</v>
@@ -2140,7 +2146,7 @@
       <c r="N12" s="29"/>
       <c r="O12" s="29"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="33"/>
       <c r="B13" s="33"/>
       <c r="C13" s="44"/>
@@ -2157,21 +2163,21 @@
       <c r="N13" s="29"/>
       <c r="O13" s="29"/>
     </row>
-    <row r="14" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="57" t="s">
         <v>56</v>
       </c>
       <c r="B14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="13">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
         <v>76</v>
-      </c>
-      <c r="C14" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="13">
-        <v>3</v>
-      </c>
-      <c r="E14" t="s">
-        <v>78</v>
       </c>
       <c r="F14" s="51" t="s">
         <v>53</v>
@@ -2194,21 +2200,21 @@
       <c r="N14" s="29"/>
       <c r="O14" s="29"/>
     </row>
-    <row r="15" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="57" t="s">
         <v>56</v>
       </c>
       <c r="B15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="46">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
         <v>76</v>
-      </c>
-      <c r="C15" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="46">
-        <v>3</v>
-      </c>
-      <c r="E15" t="s">
-        <v>78</v>
       </c>
       <c r="F15" s="51" t="s">
         <v>53</v>
@@ -2227,21 +2233,21 @@
       <c r="N15" s="29"/>
       <c r="O15" s="29"/>
     </row>
-    <row r="16" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="57" t="s">
         <v>56</v>
       </c>
       <c r="B16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="46">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
         <v>76</v>
-      </c>
-      <c r="C16" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="46">
-        <v>3</v>
-      </c>
-      <c r="E16" t="s">
-        <v>78</v>
       </c>
       <c r="F16" s="51" t="s">
         <v>53</v>
@@ -2260,21 +2266,21 @@
       <c r="N16" s="29"/>
       <c r="O16" s="29"/>
     </row>
-    <row r="17" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="57" t="s">
         <v>56</v>
       </c>
       <c r="B17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="46">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
         <v>76</v>
-      </c>
-      <c r="C17" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="46">
-        <v>3</v>
-      </c>
-      <c r="E17" t="s">
-        <v>78</v>
       </c>
       <c r="F17" s="51" t="s">
         <v>53</v>
@@ -2293,21 +2299,21 @@
       <c r="N17" s="29"/>
       <c r="O17" s="29"/>
     </row>
-    <row r="18" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="57" t="s">
         <v>56</v>
       </c>
       <c r="B18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="46">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
         <v>76</v>
-      </c>
-      <c r="C18" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="46">
-        <v>3</v>
-      </c>
-      <c r="E18" t="s">
-        <v>78</v>
       </c>
       <c r="F18" s="51" t="s">
         <v>53</v>
@@ -2326,21 +2332,21 @@
       <c r="N18" s="29"/>
       <c r="O18" s="29"/>
     </row>
-    <row r="19" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="57" t="s">
         <v>56</v>
       </c>
       <c r="B19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="46">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
         <v>76</v>
-      </c>
-      <c r="C19" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="46">
-        <v>3</v>
-      </c>
-      <c r="E19" t="s">
-        <v>78</v>
       </c>
       <c r="F19" s="51" t="s">
         <v>53</v>
@@ -2359,21 +2365,21 @@
       <c r="N19" s="29"/>
       <c r="O19" s="29"/>
     </row>
-    <row r="20" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="57" t="s">
         <v>56</v>
       </c>
       <c r="B20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="46">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
         <v>76</v>
-      </c>
-      <c r="C20" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="46">
-        <v>3</v>
-      </c>
-      <c r="E20" t="s">
-        <v>78</v>
       </c>
       <c r="F20" s="51" t="s">
         <v>53</v>
@@ -2394,7 +2400,7 @@
       <c r="N20" s="29"/>
       <c r="O20" s="29"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="33"/>
       <c r="B21" s="33"/>
       <c r="C21" s="44"/>
@@ -2411,12 +2417,12 @@
       <c r="N21" s="29"/>
       <c r="O21" s="29"/>
     </row>
-    <row r="22" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="31" t="s">
         <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C22" s="45" t="s">
         <v>50</v>
@@ -2425,7 +2431,7 @@
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F22" s="51">
         <v>391</v>
@@ -2448,12 +2454,12 @@
       <c r="N22" s="29"/>
       <c r="O22" s="29"/>
     </row>
-    <row r="23" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="33" t="s">
         <v>47</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C23" s="44" t="s">
         <v>50</v>
@@ -2462,7 +2468,7 @@
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F23" s="51">
         <v>391</v>
@@ -2483,12 +2489,12 @@
       <c r="N23" s="29"/>
       <c r="O23" s="29"/>
     </row>
-    <row r="24" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
         <v>47</v>
       </c>
       <c r="B24" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C24" s="44" t="s">
         <v>50</v>
@@ -2497,7 +2503,7 @@
         <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F24" s="51">
         <v>391</v>
@@ -2516,7 +2522,7 @@
       <c r="N24" s="29"/>
       <c r="O24" s="29"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="33"/>
       <c r="B25" s="33"/>
       <c r="C25" s="44"/>
@@ -2533,12 +2539,12 @@
       <c r="N25" s="29"/>
       <c r="O25" s="29"/>
     </row>
-    <row r="26" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="57" t="s">
         <v>57</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C26" s="45" t="s">
         <v>50</v>
@@ -2547,7 +2553,7 @@
         <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F26" s="51">
         <v>22846</v>
@@ -2570,12 +2576,12 @@
       <c r="N26" s="29"/>
       <c r="O26" s="29"/>
     </row>
-    <row r="27" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="57" t="s">
         <v>57</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C27" s="44" t="s">
         <v>50</v>
@@ -2584,7 +2590,7 @@
         <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F27" s="51">
         <v>22846</v>
@@ -2603,12 +2609,12 @@
       <c r="N27" s="29"/>
       <c r="O27" s="29"/>
     </row>
-    <row r="28" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="57" t="s">
         <v>57</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C28" s="44" t="s">
         <v>50</v>
@@ -2617,7 +2623,7 @@
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F28" s="51">
         <v>22846</v>
@@ -2636,12 +2642,12 @@
       <c r="N28" s="29"/>
       <c r="O28" s="29"/>
     </row>
-    <row r="29" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="57" t="s">
         <v>57</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C29" s="44" t="s">
         <v>50</v>
@@ -2650,7 +2656,7 @@
         <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F29" s="51">
         <v>22846</v>
@@ -2669,12 +2675,12 @@
       <c r="N29" s="29"/>
       <c r="O29" s="29"/>
     </row>
-    <row r="30" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="57" t="s">
         <v>57</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C30" s="44" t="s">
         <v>50</v>
@@ -2683,7 +2689,7 @@
         <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F30" s="51">
         <v>22846</v>
@@ -2704,12 +2710,12 @@
       <c r="N30" s="29"/>
       <c r="O30" s="29"/>
     </row>
-    <row r="31" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="57" t="s">
         <v>57</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C31" s="44" t="s">
         <v>50</v>
@@ -2718,7 +2724,7 @@
         <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F31" s="51">
         <v>22846</v>
@@ -2737,12 +2743,12 @@
       <c r="N31" s="29"/>
       <c r="O31" s="29"/>
     </row>
-    <row r="32" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="57" t="s">
         <v>57</v>
       </c>
       <c r="B32" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C32" s="44" t="s">
         <v>50</v>
@@ -2751,7 +2757,7 @@
         <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F32" s="51">
         <v>22846</v>
@@ -2770,12 +2776,12 @@
       <c r="N32" s="29"/>
       <c r="O32" s="29"/>
     </row>
-    <row r="33" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="57" t="s">
         <v>57</v>
       </c>
       <c r="B33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C33" s="44" t="s">
         <v>50</v>
@@ -2784,7 +2790,7 @@
         <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F33" s="51">
         <v>22846</v>
@@ -2803,12 +2809,12 @@
       <c r="N33" s="29"/>
       <c r="O33" s="29"/>
     </row>
-    <row r="34" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="57" t="s">
         <v>57</v>
       </c>
       <c r="B34" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C34" s="44" t="s">
         <v>50</v>
@@ -2817,7 +2823,7 @@
         <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F34" s="51">
         <v>22846</v>
@@ -2836,7 +2842,7 @@
       <c r="N34" s="29"/>
       <c r="O34" s="29"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="33"/>
       <c r="B35" s="33"/>
       <c r="C35" s="44"/>
@@ -2853,12 +2859,12 @@
       <c r="N35" s="29"/>
       <c r="O35" s="29"/>
     </row>
-    <row r="36" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="57" t="s">
         <v>58</v>
       </c>
       <c r="B36" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C36" s="45" t="s">
         <v>50</v>
@@ -2867,10 +2873,10 @@
         <v>3</v>
       </c>
       <c r="E36" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F36" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>5</v>
@@ -2890,12 +2896,12 @@
       <c r="N36" s="29"/>
       <c r="O36" s="29"/>
     </row>
-    <row r="37" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="57" t="s">
         <v>58</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C37" s="44" t="s">
         <v>50</v>
@@ -2904,10 +2910,10 @@
         <v>3</v>
       </c>
       <c r="E37" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F37" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>6</v>
@@ -2923,12 +2929,12 @@
       <c r="N37" s="29"/>
       <c r="O37" s="29"/>
     </row>
-    <row r="38" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="57" t="s">
         <v>58</v>
       </c>
       <c r="B38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C38" s="44" t="s">
         <v>50</v>
@@ -2937,10 +2943,10 @@
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F38" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>7</v>
@@ -2956,12 +2962,12 @@
       <c r="N38" s="29"/>
       <c r="O38" s="29"/>
     </row>
-    <row r="39" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="57" t="s">
         <v>58</v>
       </c>
       <c r="B39" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C39" s="44" t="s">
         <v>50</v>
@@ -2970,10 +2976,10 @@
         <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F39" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>29</v>
@@ -2989,7 +2995,7 @@
       <c r="N39" s="29"/>
       <c r="O39" s="29"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="33"/>
       <c r="B40" s="33"/>
       <c r="C40" s="44"/>
@@ -3002,12 +3008,12 @@
       <c r="J40" s="29"/>
       <c r="K40" s="29"/>
     </row>
-    <row r="41" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="57" t="s">
         <v>59</v>
       </c>
       <c r="B41" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C41" s="45" t="s">
         <v>50</v>
@@ -3016,10 +3022,10 @@
         <v>3</v>
       </c>
       <c r="E41" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F41" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>5</v>
@@ -3035,12 +3041,12 @@
       </c>
       <c r="K41" s="29"/>
     </row>
-    <row r="42" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="57" t="s">
         <v>59</v>
       </c>
       <c r="B42" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C42" s="44" t="s">
         <v>50</v>
@@ -3049,10 +3055,10 @@
         <v>3</v>
       </c>
       <c r="E42" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F42" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>6</v>
@@ -3064,12 +3070,12 @@
       <c r="J42" s="29"/>
       <c r="K42" s="29"/>
     </row>
-    <row r="43" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="57" t="s">
         <v>59</v>
       </c>
       <c r="B43" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C43" s="44" t="s">
         <v>50</v>
@@ -3078,10 +3084,10 @@
         <v>3</v>
       </c>
       <c r="E43" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F43" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>7</v>
@@ -3093,12 +3099,12 @@
       <c r="J43" s="29"/>
       <c r="K43" s="29"/>
     </row>
-    <row r="44" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="57" t="s">
         <v>59</v>
       </c>
       <c r="B44" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C44" s="44" t="s">
         <v>50</v>
@@ -3107,10 +3113,10 @@
         <v>3</v>
       </c>
       <c r="E44" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F44" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>29</v>
@@ -3122,7 +3128,7 @@
       <c r="J44" s="29"/>
       <c r="K44" s="29"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="33"/>
       <c r="B45" s="33"/>
       <c r="C45" s="44"/>
@@ -3139,12 +3145,12 @@
       <c r="N45" s="29"/>
       <c r="O45" s="29"/>
     </row>
-    <row r="46" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="57" t="s">
         <v>60</v>
       </c>
       <c r="B46" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C46" s="45" t="s">
         <v>50</v>
@@ -3153,10 +3159,10 @@
         <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F46" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G46" s="6" t="s">
         <v>5</v>
@@ -3176,12 +3182,12 @@
       <c r="N46" s="29"/>
       <c r="O46" s="29"/>
     </row>
-    <row r="47" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="57" t="s">
         <v>60</v>
       </c>
       <c r="B47" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C47" s="44" t="s">
         <v>50</v>
@@ -3190,10 +3196,10 @@
         <v>3</v>
       </c>
       <c r="E47" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F47" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G47" s="6" t="s">
         <v>6</v>
@@ -3209,12 +3215,12 @@
       <c r="N47" s="29"/>
       <c r="O47" s="29"/>
     </row>
-    <row r="48" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="57" t="s">
         <v>60</v>
       </c>
       <c r="B48" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C48" s="44" t="s">
         <v>50</v>
@@ -3223,10 +3229,10 @@
         <v>3</v>
       </c>
       <c r="E48" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F48" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>7</v>
@@ -3242,12 +3248,12 @@
       <c r="N48" s="29"/>
       <c r="O48" s="29"/>
     </row>
-    <row r="49" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="57" t="s">
         <v>60</v>
       </c>
       <c r="B49" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C49" s="44" t="s">
         <v>50</v>
@@ -3256,10 +3262,10 @@
         <v>3</v>
       </c>
       <c r="E49" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F49" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>29</v>
@@ -3275,7 +3281,7 @@
       <c r="N49" s="29"/>
       <c r="O49" s="29"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="33"/>
       <c r="B50" s="33"/>
       <c r="C50" s="44"/>
@@ -3292,12 +3298,12 @@
       <c r="N50" s="29"/>
       <c r="O50" s="29"/>
     </row>
-    <row r="51" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="57" t="s">
         <v>61</v>
       </c>
       <c r="B51" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C51" s="45" t="s">
         <v>50</v>
@@ -3306,10 +3312,10 @@
         <v>3</v>
       </c>
       <c r="E51" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>5</v>
@@ -3329,12 +3335,12 @@
       <c r="N51" s="29"/>
       <c r="O51" s="29"/>
     </row>
-    <row r="52" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="57" t="s">
         <v>61</v>
       </c>
       <c r="B52" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C52" s="44" t="s">
         <v>50</v>
@@ -3343,10 +3349,10 @@
         <v>3</v>
       </c>
       <c r="E52" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F52" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G52" s="6" t="s">
         <v>6</v>
@@ -3362,12 +3368,12 @@
       <c r="N52" s="29"/>
       <c r="O52" s="29"/>
     </row>
-    <row r="53" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="57" t="s">
         <v>61</v>
       </c>
       <c r="B53" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C53" s="44" t="s">
         <v>50</v>
@@ -3376,10 +3382,10 @@
         <v>3</v>
       </c>
       <c r="E53" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F53" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G53" s="5" t="s">
         <v>7</v>
@@ -3396,12 +3402,12 @@
       <c r="O53" s="29"/>
       <c r="P53"/>
     </row>
-    <row r="54" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="57" t="s">
         <v>61</v>
       </c>
       <c r="B54" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C54" s="44" t="s">
         <v>50</v>
@@ -3410,10 +3416,10 @@
         <v>3</v>
       </c>
       <c r="E54" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F54" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G54" s="6" t="s">
         <v>29</v>
@@ -3430,7 +3436,7 @@
       <c r="O54" s="29"/>
       <c r="P54"/>
     </row>
-    <row r="55" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="33"/>
       <c r="B55" s="33"/>
       <c r="C55" s="44"/>
@@ -3448,12 +3454,12 @@
       <c r="O55" s="29"/>
       <c r="P55"/>
     </row>
-    <row r="56" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="57" t="s">
         <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C56" s="45" t="s">
         <v>50</v>
@@ -3462,10 +3468,10 @@
         <v>3</v>
       </c>
       <c r="E56" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F56" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G56" s="6" t="s">
         <v>5</v>
@@ -3486,12 +3492,12 @@
       <c r="O56" s="29"/>
       <c r="P56"/>
     </row>
-    <row r="57" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="57" t="s">
         <v>62</v>
       </c>
       <c r="B57" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C57" s="44" t="s">
         <v>50</v>
@@ -3500,10 +3506,10 @@
         <v>3</v>
       </c>
       <c r="E57" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F57" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G57" s="6" t="s">
         <v>6</v>
@@ -3520,12 +3526,12 @@
       <c r="O57" s="29"/>
       <c r="P57"/>
     </row>
-    <row r="58" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="57" t="s">
         <v>62</v>
       </c>
       <c r="B58" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C58" s="44" t="s">
         <v>50</v>
@@ -3534,10 +3540,10 @@
         <v>3</v>
       </c>
       <c r="E58" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F58" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G58" s="5" t="s">
         <v>7</v>
@@ -3554,12 +3560,12 @@
       <c r="O58" s="29"/>
       <c r="P58"/>
     </row>
-    <row r="59" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="57" t="s">
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C59" s="44" t="s">
         <v>50</v>
@@ -3568,10 +3574,10 @@
         <v>3</v>
       </c>
       <c r="E59" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F59" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G59" s="6" t="s">
         <v>29</v>
@@ -3588,7 +3594,7 @@
       <c r="O59" s="29"/>
       <c r="P59"/>
     </row>
-    <row r="60" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="33"/>
       <c r="B60" s="33"/>
       <c r="C60" s="44"/>
@@ -3606,12 +3612,12 @@
       <c r="O60" s="29"/>
       <c r="P60"/>
     </row>
-    <row r="61" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="57" t="s">
         <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C61" s="45" t="s">
         <v>50</v>
@@ -3620,10 +3626,10 @@
         <v>3</v>
       </c>
       <c r="E61" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F61" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G61" s="6" t="s">
         <v>5</v>
@@ -3644,12 +3650,12 @@
       <c r="O61" s="29"/>
       <c r="P61"/>
     </row>
-    <row r="62" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="57" t="s">
         <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C62" s="44" t="s">
         <v>50</v>
@@ -3658,10 +3664,10 @@
         <v>3</v>
       </c>
       <c r="E62" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F62" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G62" s="6" t="s">
         <v>6</v>
@@ -3678,12 +3684,12 @@
       <c r="O62" s="29"/>
       <c r="P62"/>
     </row>
-    <row r="63" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="57" t="s">
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C63" s="44" t="s">
         <v>50</v>
@@ -3692,10 +3698,10 @@
         <v>3</v>
       </c>
       <c r="E63" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F63" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>7</v>
@@ -3712,12 +3718,12 @@
       <c r="O63" s="29"/>
       <c r="P63"/>
     </row>
-    <row r="64" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="57" t="s">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C64" s="44" t="s">
         <v>50</v>
@@ -3726,10 +3732,10 @@
         <v>3</v>
       </c>
       <c r="E64" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F64" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>29</v>
@@ -3745,7 +3751,7 @@
       <c r="N64" s="29"/>
       <c r="O64" s="29"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="33"/>
       <c r="B65" s="33"/>
       <c r="C65" s="44"/>
@@ -3762,12 +3768,12 @@
       <c r="N65" s="29"/>
       <c r="O65" s="29"/>
     </row>
-    <row r="66" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="57" t="s">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C66" s="45" t="s">
         <v>50</v>
@@ -3776,10 +3782,10 @@
         <v>3</v>
       </c>
       <c r="E66" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F66" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G66" s="6" t="s">
         <v>5</v>
@@ -3799,12 +3805,12 @@
       <c r="N66" s="29"/>
       <c r="O66" s="29"/>
     </row>
-    <row r="67" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="57" t="s">
         <v>64</v>
       </c>
       <c r="B67" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C67" s="44" t="s">
         <v>50</v>
@@ -3813,10 +3819,10 @@
         <v>3</v>
       </c>
       <c r="E67" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F67" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G67" s="6" t="s">
         <v>6</v>
@@ -3832,12 +3838,12 @@
       <c r="N67" s="29"/>
       <c r="O67" s="29"/>
     </row>
-    <row r="68" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="57" t="s">
         <v>64</v>
       </c>
       <c r="B68" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C68" s="44" t="s">
         <v>50</v>
@@ -3846,10 +3852,10 @@
         <v>3</v>
       </c>
       <c r="E68" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F68" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G68" s="5" t="s">
         <v>7</v>
@@ -3865,12 +3871,12 @@
       <c r="N68" s="29"/>
       <c r="O68" s="29"/>
     </row>
-    <row r="69" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="57" t="s">
         <v>64</v>
       </c>
       <c r="B69" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C69" s="44" t="s">
         <v>50</v>
@@ -3879,10 +3885,10 @@
         <v>3</v>
       </c>
       <c r="E69" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F69" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G69" s="6" t="s">
         <v>29</v>
@@ -3898,7 +3904,7 @@
       <c r="N69" s="29"/>
       <c r="O69" s="29"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="33"/>
       <c r="B70" s="33"/>
       <c r="C70" s="44"/>
@@ -3915,12 +3921,12 @@
       <c r="N70" s="29"/>
       <c r="O70" s="29"/>
     </row>
-    <row r="71" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="57" t="s">
         <v>65</v>
       </c>
       <c r="B71" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C71" s="45" t="s">
         <v>50</v>
@@ -3929,10 +3935,10 @@
         <v>3</v>
       </c>
       <c r="E71" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F71" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G71" s="6" t="s">
         <v>5</v>
@@ -3952,12 +3958,12 @@
       <c r="N71" s="29"/>
       <c r="O71" s="29"/>
     </row>
-    <row r="72" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="57" t="s">
         <v>65</v>
       </c>
       <c r="B72" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C72" s="44" t="s">
         <v>50</v>
@@ -3966,10 +3972,10 @@
         <v>3</v>
       </c>
       <c r="E72" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F72" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G72" s="6" t="s">
         <v>6</v>
@@ -3985,12 +3991,12 @@
       <c r="N72" s="29"/>
       <c r="O72" s="29"/>
     </row>
-    <row r="73" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="57" t="s">
         <v>65</v>
       </c>
       <c r="B73" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C73" s="44" t="s">
         <v>50</v>
@@ -3999,10 +4005,10 @@
         <v>3</v>
       </c>
       <c r="E73" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F73" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G73" s="5" t="s">
         <v>7</v>
@@ -4018,12 +4024,12 @@
       <c r="N73" s="29"/>
       <c r="O73" s="29"/>
     </row>
-    <row r="74" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="57" t="s">
         <v>65</v>
       </c>
       <c r="B74" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C74" s="44" t="s">
         <v>50</v>
@@ -4032,10 +4038,10 @@
         <v>3</v>
       </c>
       <c r="E74" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F74" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G74" s="6" t="s">
         <v>29</v>
@@ -4051,7 +4057,7 @@
       <c r="N74" s="29"/>
       <c r="O74" s="29"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="33"/>
       <c r="B75" s="33"/>
       <c r="C75" s="44"/>
@@ -4068,12 +4074,12 @@
       <c r="N75" s="29"/>
       <c r="O75" s="29"/>
     </row>
-    <row r="76" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="57" t="s">
         <v>66</v>
       </c>
       <c r="B76" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C76" s="45" t="s">
         <v>50</v>
@@ -4082,10 +4088,10 @@
         <v>3</v>
       </c>
       <c r="E76" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F76" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G76" s="6" t="s">
         <v>5</v>
@@ -4105,12 +4111,12 @@
       <c r="N76" s="29"/>
       <c r="O76" s="29"/>
     </row>
-    <row r="77" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="57" t="s">
         <v>66</v>
       </c>
       <c r="B77" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C77" s="44" t="s">
         <v>50</v>
@@ -4119,10 +4125,10 @@
         <v>3</v>
       </c>
       <c r="E77" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F77" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G77" s="6" t="s">
         <v>6</v>
@@ -4134,12 +4140,12 @@
       <c r="J77" s="29"/>
       <c r="K77" s="29"/>
     </row>
-    <row r="78" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="57" t="s">
         <v>66</v>
       </c>
       <c r="B78" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C78" s="44" t="s">
         <v>50</v>
@@ -4148,10 +4154,10 @@
         <v>3</v>
       </c>
       <c r="E78" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F78" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G78" s="5" t="s">
         <v>7</v>
@@ -4163,12 +4169,12 @@
       <c r="J78" s="29"/>
       <c r="K78" s="29"/>
     </row>
-    <row r="79" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="57" t="s">
         <v>66</v>
       </c>
       <c r="B79" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C79" s="44" t="s">
         <v>50</v>
@@ -4177,10 +4183,10 @@
         <v>3</v>
       </c>
       <c r="E79" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F79" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G79" s="6" t="s">
         <v>29</v>
@@ -4192,7 +4198,7 @@
       <c r="J79" s="29"/>
       <c r="K79" s="29"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="33"/>
       <c r="B80" s="33"/>
       <c r="C80" s="44"/>
@@ -4205,12 +4211,12 @@
       <c r="J80" s="29"/>
       <c r="K80" s="29"/>
     </row>
-    <row r="81" spans="1:15" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="57" t="s">
         <v>69</v>
       </c>
       <c r="B81" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C81" s="45" t="s">
         <v>50</v>
@@ -4219,10 +4225,10 @@
         <v>3</v>
       </c>
       <c r="E81" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F81" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>5</v>
@@ -4242,12 +4248,12 @@
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
     </row>
-    <row r="82" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="57" t="s">
         <v>69</v>
       </c>
       <c r="B82" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C82" s="44" t="s">
         <v>50</v>
@@ -4256,10 +4262,10 @@
         <v>3</v>
       </c>
       <c r="E82" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F82" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G82" s="6" t="s">
         <v>6</v>
@@ -4275,12 +4281,12 @@
       <c r="N82" s="29"/>
       <c r="O82" s="29"/>
     </row>
-    <row r="83" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="57" t="s">
         <v>69</v>
       </c>
       <c r="B83" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C83" s="44" t="s">
         <v>50</v>
@@ -4289,10 +4295,10 @@
         <v>3</v>
       </c>
       <c r="E83" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F83" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G83" s="5" t="s">
         <v>7</v>
@@ -4308,12 +4314,12 @@
       <c r="N83" s="29"/>
       <c r="O83" s="29"/>
     </row>
-    <row r="84" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="57" t="s">
         <v>69</v>
       </c>
       <c r="B84" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C84" s="44" t="s">
         <v>50</v>
@@ -4322,10 +4328,10 @@
         <v>3</v>
       </c>
       <c r="E84" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F84" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G84" s="6" t="s">
         <v>29</v>
@@ -4341,7 +4347,7 @@
       <c r="N84" s="29"/>
       <c r="O84" s="29"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="38"/>
       <c r="B85" s="38"/>
       <c r="C85" s="44"/>
@@ -4358,12 +4364,12 @@
       <c r="N85" s="29"/>
       <c r="O85" s="29"/>
     </row>
-    <row r="86" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="57" t="s">
         <v>68</v>
       </c>
       <c r="B86" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C86" s="45" t="s">
         <v>50</v>
@@ -4372,10 +4378,10 @@
         <v>3</v>
       </c>
       <c r="E86" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F86" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G86" s="6" t="s">
         <v>5</v>
@@ -4395,12 +4401,12 @@
       <c r="N86" s="29"/>
       <c r="O86" s="29"/>
     </row>
-    <row r="87" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="57" t="s">
         <v>68</v>
       </c>
       <c r="B87" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C87" s="44" t="s">
         <v>50</v>
@@ -4409,10 +4415,10 @@
         <v>3</v>
       </c>
       <c r="E87" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F87" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G87" s="6" t="s">
         <v>6</v>
@@ -4428,12 +4434,12 @@
       <c r="N87" s="29"/>
       <c r="O87" s="29"/>
     </row>
-    <row r="88" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="57" t="s">
         <v>68</v>
       </c>
       <c r="B88" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C88" s="44" t="s">
         <v>50</v>
@@ -4442,10 +4448,10 @@
         <v>3</v>
       </c>
       <c r="E88" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F88" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G88" s="5" t="s">
         <v>7</v>
@@ -4461,12 +4467,12 @@
       <c r="N88" s="29"/>
       <c r="O88" s="29"/>
     </row>
-    <row r="89" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="57" t="s">
         <v>68</v>
       </c>
       <c r="B89" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C89" s="44" t="s">
         <v>50</v>
@@ -4475,10 +4481,10 @@
         <v>3</v>
       </c>
       <c r="E89" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F89" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G89" s="6" t="s">
         <v>29</v>
@@ -4494,7 +4500,7 @@
       <c r="N89" s="29"/>
       <c r="O89" s="29"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="33"/>
       <c r="B90" s="33"/>
       <c r="C90" s="44"/>
@@ -4511,12 +4517,12 @@
       <c r="N90" s="29"/>
       <c r="O90" s="29"/>
     </row>
-    <row r="91" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="57" t="s">
         <v>67</v>
       </c>
       <c r="B91" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C91" s="45" t="s">
         <v>50</v>
@@ -4525,10 +4531,10 @@
         <v>3</v>
       </c>
       <c r="E91" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F91" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G91" s="6" t="s">
         <v>5</v>
@@ -4548,12 +4554,12 @@
       <c r="N91" s="29"/>
       <c r="O91" s="29"/>
     </row>
-    <row r="92" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="57" t="s">
         <v>67</v>
       </c>
       <c r="B92" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C92" s="44" t="s">
         <v>50</v>
@@ -4562,10 +4568,10 @@
         <v>3</v>
       </c>
       <c r="E92" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F92" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G92" s="6" t="s">
         <v>6</v>
@@ -4581,12 +4587,12 @@
       <c r="N92" s="29"/>
       <c r="O92" s="29"/>
     </row>
-    <row r="93" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="57" t="s">
         <v>67</v>
       </c>
       <c r="B93" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C93" s="44" t="s">
         <v>50</v>
@@ -4595,10 +4601,10 @@
         <v>3</v>
       </c>
       <c r="E93" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F93" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G93" s="5" t="s">
         <v>7</v>
@@ -4614,12 +4620,12 @@
       <c r="N93" s="29"/>
       <c r="O93" s="29"/>
     </row>
-    <row r="94" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="57" t="s">
         <v>67</v>
       </c>
       <c r="B94" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C94" s="44" t="s">
         <v>50</v>
@@ -4628,10 +4634,10 @@
         <v>3</v>
       </c>
       <c r="E94" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F94" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G94" s="6" t="s">
         <v>29</v>
@@ -4647,7 +4653,7 @@
       <c r="N94" s="29"/>
       <c r="O94" s="29"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="33"/>
       <c r="B95" s="33"/>
       <c r="C95" s="44"/>
@@ -4664,12 +4670,12 @@
       <c r="N95" s="29"/>
       <c r="O95" s="29"/>
     </row>
-    <row r="96" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A96" s="2" t="s">
-        <v>71</v>
+    <row r="96" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>104</v>
       </c>
       <c r="B96" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C96" s="45" t="s">
         <v>50</v>
@@ -4677,8 +4683,11 @@
       <c r="D96" s="13">
         <v>3</v>
       </c>
+      <c r="E96" t="s">
+        <v>105</v>
+      </c>
       <c r="F96" s="50">
-        <v>12372</v>
+        <v>12368</v>
       </c>
       <c r="G96" s="6"/>
       <c r="H96" s="6"/>
@@ -4690,12 +4699,12 @@
       <c r="N96" s="29"/>
       <c r="O96" s="29"/>
     </row>
-    <row r="97" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A97" s="2" t="s">
-        <v>70</v>
+    <row r="97" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>103</v>
       </c>
       <c r="B97" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C97" s="45" t="s">
         <v>50</v>
@@ -4703,8 +4712,11 @@
       <c r="D97" s="13">
         <v>3</v>
       </c>
+      <c r="E97" t="s">
+        <v>106</v>
+      </c>
       <c r="F97" s="50">
-        <v>12371</v>
+        <v>12365</v>
       </c>
       <c r="G97" s="6"/>
       <c r="H97" s="6"/>
@@ -4716,10 +4728,10 @@
       <c r="N97" s="29"/>
       <c r="O97" s="29"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I98" s="2"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="29"/>
       <c r="B99" s="29"/>
       <c r="C99" s="29"/>
@@ -4736,7 +4748,7 @@
       <c r="N99" s="29"/>
       <c r="O99" s="29"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="29"/>
       <c r="B100" s="29"/>
       <c r="C100" s="29"/>
@@ -4753,7 +4765,7 @@
       <c r="N100" s="29"/>
       <c r="O100" s="29"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="29"/>
       <c r="B101" s="29"/>
       <c r="C101" s="29"/>

--- a/deployment/Omaha_Cal_Info_GP03FLMB_00003.xlsx
+++ b/deployment/Omaha_Cal_Info_GP03FLMB_00003.xlsx
@@ -344,10 +344,10 @@
     <t>GP03FLMA-RIM01-00-SIOENG000</t>
   </si>
   <si>
-    <t>OL000087</t>
-  </si>
-  <si>
-    <t>OL000088</t>
+    <t>OL000102</t>
+  </si>
+  <si>
+    <t>OL000104</t>
   </si>
 </sst>
 </file>
@@ -1728,10 +1728,10 @@
   <dimension ref="A1:P101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G105" sqref="G105"/>
+      <selection pane="bottomRight" activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -4684,12 +4684,11 @@
         <v>3</v>
       </c>
       <c r="E96" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F96" s="50">
-        <v>12368</v>
-      </c>
-      <c r="G96" s="6"/>
+        <v>1399201</v>
+      </c>
       <c r="H96" s="6"/>
       <c r="I96" s="30"/>
       <c r="J96" s="29"/>
@@ -4713,10 +4712,10 @@
         <v>3</v>
       </c>
       <c r="E97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F97" s="50">
-        <v>12365</v>
+        <v>1237101</v>
       </c>
       <c r="G97" s="6"/>
       <c r="H97" s="6"/>

--- a/deployment/Omaha_Cal_Info_GP03FLMB_00003.xlsx
+++ b/deployment/Omaha_Cal_Info_GP03FLMB_00003.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2955" yWindow="2460" windowWidth="24900" windowHeight="12615" activeTab="1"/>
+    <workbookView xWindow="2955" yWindow="2460" windowWidth="24900" windowHeight="12615"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -22,12 +22,12 @@
     <definedName name="_FilterDatabase_0">[1]Moorings!#REF!</definedName>
     <definedName name="_FilterDatabase_0_0_0">[1]Moorings!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="107">
   <si>
     <t>Ref Des</t>
   </si>
@@ -338,16 +338,16 @@
     <t>A00870</t>
   </si>
   <si>
-    <t>GP03FLMA-RIS01-00-SIOENG000</t>
-  </si>
-  <si>
-    <t>GP03FLMA-RIM01-00-SIOENG000</t>
-  </si>
-  <si>
     <t>OL000102</t>
   </si>
   <si>
     <t>OL000104</t>
+  </si>
+  <si>
+    <t>GP03FLMB-RIS01-00-SIOENG000</t>
+  </si>
+  <si>
+    <t>GP03FLMB-RIM01-00-SIOENG000</t>
   </si>
 </sst>
 </file>
@@ -1600,8 +1600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1725,13 +1725,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P101"/>
+  <dimension ref="A1:Q101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D74" sqref="D74"/>
+      <selection pane="bottomRight" activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1750,7 +1750,7 @@
     <col min="15" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="16" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="16" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -1785,7 +1785,7 @@
       <c r="N1" s="28"/>
       <c r="O1" s="28"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="29"/>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
@@ -1802,7 +1802,7 @@
       <c r="N2" s="29"/>
       <c r="O2" s="29"/>
     </row>
-    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="57" t="s">
         <v>55</v>
       </c>
@@ -1834,12 +1834,21 @@
         <v>29</v>
       </c>
       <c r="K3" s="29"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="29"/>
+      <c r="L3" s="32">
+        <f>MATCH(A3,M:M,0)</f>
+        <v>4</v>
+      </c>
+      <c r="M3" s="29" t="s">
+        <v>105</v>
+      </c>
       <c r="N3" s="29"/>
       <c r="O3" s="29"/>
-    </row>
-    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q3" s="2">
+        <f>MATCH(M3,A:A,0)</f>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="s">
         <v>55</v>
       </c>
@@ -1869,12 +1878,21 @@
       </c>
       <c r="J4" s="29"/>
       <c r="K4" s="29"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="29"/>
+      <c r="L4" s="32">
+        <f t="shared" ref="L4:L67" si="0">MATCH(A4,M:M,0)</f>
+        <v>4</v>
+      </c>
+      <c r="M4" s="29" t="s">
+        <v>55</v>
+      </c>
       <c r="N4" s="29"/>
       <c r="O4" s="29"/>
-    </row>
-    <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q4" s="2">
+        <f t="shared" ref="Q4:Q20" si="1">MATCH(M4,A:A,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="57" t="s">
         <v>55</v>
       </c>
@@ -1902,12 +1920,21 @@
       <c r="I5" s="30"/>
       <c r="J5" s="29"/>
       <c r="K5" s="29"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="29"/>
+      <c r="L5" s="32">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M5" s="29" t="s">
+        <v>56</v>
+      </c>
       <c r="N5" s="29"/>
       <c r="O5" s="29"/>
-    </row>
-    <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q5" s="2">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="57" t="s">
         <v>55</v>
       </c>
@@ -1935,12 +1962,21 @@
       <c r="I6" s="30"/>
       <c r="J6" s="29"/>
       <c r="K6" s="29"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="29"/>
+      <c r="L6" s="32">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M6" s="29" t="s">
+        <v>47</v>
+      </c>
       <c r="N6" s="29"/>
       <c r="O6" s="29"/>
-    </row>
-    <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q6" s="2">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="57" t="s">
         <v>55</v>
       </c>
@@ -1968,12 +2004,21 @@
       <c r="I7" s="30"/>
       <c r="J7" s="29"/>
       <c r="K7" s="29"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="29"/>
+      <c r="L7" s="32">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M7" s="29" t="s">
+        <v>57</v>
+      </c>
       <c r="N7" s="29"/>
       <c r="O7" s="29"/>
-    </row>
-    <row r="8" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q7" s="2">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="57" t="s">
         <v>55</v>
       </c>
@@ -2001,12 +2046,21 @@
       <c r="I8" s="30"/>
       <c r="J8" s="29"/>
       <c r="K8" s="29"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="29"/>
+      <c r="L8" s="32">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M8" s="29" t="s">
+        <v>58</v>
+      </c>
       <c r="N8" s="29"/>
       <c r="O8" s="29"/>
-    </row>
-    <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q8" s="2">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="57" t="s">
         <v>55</v>
       </c>
@@ -2036,12 +2090,21 @@
       </c>
       <c r="J9" s="29"/>
       <c r="K9" s="29"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="29"/>
+      <c r="L9" s="32">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M9" s="29" t="s">
+        <v>59</v>
+      </c>
       <c r="N9" s="29"/>
       <c r="O9" s="29"/>
-    </row>
-    <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q9" s="2">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="57" t="s">
         <v>55</v>
       </c>
@@ -2071,12 +2134,21 @@
       </c>
       <c r="J10" s="29"/>
       <c r="K10" s="29"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="29"/>
+      <c r="L10" s="32">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M10" s="29" t="s">
+        <v>60</v>
+      </c>
       <c r="N10" s="29"/>
       <c r="O10" s="29"/>
-    </row>
-    <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q10" s="2">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="57" t="s">
         <v>55</v>
       </c>
@@ -2106,12 +2178,21 @@
       </c>
       <c r="J11" s="29"/>
       <c r="K11" s="29"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="29"/>
+      <c r="L11" s="32">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M11" s="29" t="s">
+        <v>61</v>
+      </c>
       <c r="N11" s="29"/>
       <c r="O11" s="29"/>
-    </row>
-    <row r="12" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q11" s="2">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="57" t="s">
         <v>55</v>
       </c>
@@ -2141,12 +2222,21 @@
       </c>
       <c r="J12" s="29"/>
       <c r="K12" s="29"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="29"/>
+      <c r="L12" s="32">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M12" s="29" t="s">
+        <v>62</v>
+      </c>
       <c r="N12" s="29"/>
       <c r="O12" s="29"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q12" s="2">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="33"/>
       <c r="B13" s="33"/>
       <c r="C13" s="44"/>
@@ -2158,12 +2248,21 @@
       <c r="I13" s="30"/>
       <c r="J13" s="29"/>
       <c r="K13" s="29"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="29"/>
+      <c r="L13" s="32" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M13" s="29" t="s">
+        <v>63</v>
+      </c>
       <c r="N13" s="29"/>
       <c r="O13" s="29"/>
-    </row>
-    <row r="14" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q13" s="2">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="57" t="s">
         <v>56</v>
       </c>
@@ -2195,12 +2294,21 @@
         <v>29</v>
       </c>
       <c r="K14" s="29"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="29"/>
+      <c r="L14" s="32">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M14" s="29" t="s">
+        <v>64</v>
+      </c>
       <c r="N14" s="29"/>
       <c r="O14" s="29"/>
-    </row>
-    <row r="15" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q14" s="2">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="57" t="s">
         <v>56</v>
       </c>
@@ -2228,12 +2336,21 @@
       <c r="I15" s="30"/>
       <c r="J15" s="29"/>
       <c r="K15" s="29"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="29"/>
+      <c r="L15" s="32">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M15" s="29" t="s">
+        <v>65</v>
+      </c>
       <c r="N15" s="29"/>
       <c r="O15" s="29"/>
-    </row>
-    <row r="16" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q15" s="2">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="57" t="s">
         <v>56</v>
       </c>
@@ -2261,12 +2378,21 @@
       <c r="I16" s="30"/>
       <c r="J16" s="29"/>
       <c r="K16" s="29"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="29"/>
+      <c r="L16" s="32">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M16" s="29" t="s">
+        <v>66</v>
+      </c>
       <c r="N16" s="29"/>
       <c r="O16" s="29"/>
-    </row>
-    <row r="17" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q16" s="2">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="57" t="s">
         <v>56</v>
       </c>
@@ -2294,12 +2420,21 @@
       <c r="I17" s="30"/>
       <c r="J17" s="29"/>
       <c r="K17" s="29"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="29"/>
+      <c r="L17" s="32">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M17" s="29" t="s">
+        <v>69</v>
+      </c>
       <c r="N17" s="29"/>
       <c r="O17" s="29"/>
-    </row>
-    <row r="18" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q17" s="2">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="57" t="s">
         <v>56</v>
       </c>
@@ -2327,12 +2462,21 @@
       <c r="I18" s="30"/>
       <c r="J18" s="29"/>
       <c r="K18" s="29"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="29"/>
+      <c r="L18" s="32">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M18" s="29" t="s">
+        <v>68</v>
+      </c>
       <c r="N18" s="29"/>
       <c r="O18" s="29"/>
-    </row>
-    <row r="19" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q18" s="2">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="57" t="s">
         <v>56</v>
       </c>
@@ -2360,12 +2504,21 @@
       <c r="I19" s="30"/>
       <c r="J19" s="29"/>
       <c r="K19" s="29"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="29"/>
+      <c r="L19" s="32">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M19" s="29" t="s">
+        <v>67</v>
+      </c>
       <c r="N19" s="29"/>
       <c r="O19" s="29"/>
-    </row>
-    <row r="20" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q19" s="2">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="57" t="s">
         <v>56</v>
       </c>
@@ -2395,12 +2548,21 @@
       </c>
       <c r="J20" s="29"/>
       <c r="K20" s="29"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="29"/>
+      <c r="L20" s="32">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M20" s="29" t="s">
+        <v>106</v>
+      </c>
       <c r="N20" s="29"/>
       <c r="O20" s="29"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q20" s="2">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="33"/>
       <c r="B21" s="33"/>
       <c r="C21" s="44"/>
@@ -2412,12 +2574,15 @@
       <c r="I21" s="30"/>
       <c r="J21" s="29"/>
       <c r="K21" s="29"/>
-      <c r="L21" s="32"/>
+      <c r="L21" s="32" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
       <c r="M21" s="29"/>
       <c r="N21" s="29"/>
       <c r="O21" s="29"/>
     </row>
-    <row r="22" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="31" t="s">
         <v>47</v>
       </c>
@@ -2449,12 +2614,15 @@
         <v>29</v>
       </c>
       <c r="K22" s="29"/>
-      <c r="L22" s="32"/>
+      <c r="L22" s="32">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="M22" s="29"/>
       <c r="N22" s="29"/>
       <c r="O22" s="29"/>
     </row>
-    <row r="23" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="33" t="s">
         <v>47</v>
       </c>
@@ -2484,12 +2652,15 @@
       </c>
       <c r="J23" s="29"/>
       <c r="K23" s="29"/>
-      <c r="L23" s="32"/>
+      <c r="L23" s="32">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="M23" s="29"/>
       <c r="N23" s="29"/>
       <c r="O23" s="29"/>
     </row>
-    <row r="24" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
         <v>47</v>
       </c>
@@ -2517,12 +2688,15 @@
       <c r="I24" s="30"/>
       <c r="J24" s="29"/>
       <c r="K24" s="29"/>
-      <c r="L24" s="32"/>
+      <c r="L24" s="32">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="M24" s="29"/>
       <c r="N24" s="29"/>
       <c r="O24" s="29"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="33"/>
       <c r="B25" s="33"/>
       <c r="C25" s="44"/>
@@ -2534,12 +2708,15 @@
       <c r="I25" s="30"/>
       <c r="J25" s="29"/>
       <c r="K25" s="29"/>
-      <c r="L25" s="32"/>
+      <c r="L25" s="32" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
       <c r="M25" s="29"/>
       <c r="N25" s="29"/>
       <c r="O25" s="29"/>
     </row>
-    <row r="26" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="57" t="s">
         <v>57</v>
       </c>
@@ -2571,12 +2748,15 @@
         <v>500</v>
       </c>
       <c r="K26" s="29"/>
-      <c r="L26" s="32"/>
+      <c r="L26" s="32">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="M26" s="29"/>
       <c r="N26" s="29"/>
       <c r="O26" s="29"/>
     </row>
-    <row r="27" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="57" t="s">
         <v>57</v>
       </c>
@@ -2604,12 +2784,15 @@
       <c r="I27" s="30"/>
       <c r="J27" s="29"/>
       <c r="K27" s="29"/>
-      <c r="L27" s="32"/>
+      <c r="L27" s="32">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="M27" s="29"/>
       <c r="N27" s="29"/>
       <c r="O27" s="29"/>
     </row>
-    <row r="28" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="57" t="s">
         <v>57</v>
       </c>
@@ -2637,12 +2820,15 @@
       <c r="I28" s="30"/>
       <c r="J28" s="29"/>
       <c r="K28" s="29"/>
-      <c r="L28" s="32"/>
+      <c r="L28" s="32">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="M28" s="29"/>
       <c r="N28" s="29"/>
       <c r="O28" s="29"/>
     </row>
-    <row r="29" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="57" t="s">
         <v>57</v>
       </c>
@@ -2670,12 +2856,15 @@
       <c r="I29" s="30"/>
       <c r="J29" s="29"/>
       <c r="K29" s="29"/>
-      <c r="L29" s="32"/>
+      <c r="L29" s="32">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="M29" s="29"/>
       <c r="N29" s="29"/>
       <c r="O29" s="29"/>
     </row>
-    <row r="30" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="57" t="s">
         <v>57</v>
       </c>
@@ -2705,12 +2894,15 @@
       </c>
       <c r="J30" s="29"/>
       <c r="K30" s="29"/>
-      <c r="L30" s="32"/>
+      <c r="L30" s="32">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="M30" s="29"/>
       <c r="N30" s="29"/>
       <c r="O30" s="29"/>
     </row>
-    <row r="31" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="57" t="s">
         <v>57</v>
       </c>
@@ -2738,12 +2930,15 @@
       <c r="I31" s="30"/>
       <c r="J31" s="29"/>
       <c r="K31" s="29"/>
-      <c r="L31" s="32"/>
+      <c r="L31" s="32">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="M31" s="29"/>
       <c r="N31" s="29"/>
       <c r="O31" s="29"/>
     </row>
-    <row r="32" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="57" t="s">
         <v>57</v>
       </c>
@@ -2771,7 +2966,10 @@
       <c r="I32" s="30"/>
       <c r="J32" s="29"/>
       <c r="K32" s="29"/>
-      <c r="L32" s="32"/>
+      <c r="L32" s="32">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="M32" s="29"/>
       <c r="N32" s="29"/>
       <c r="O32" s="29"/>
@@ -2804,7 +3002,10 @@
       <c r="I33" s="30"/>
       <c r="J33" s="29"/>
       <c r="K33" s="29"/>
-      <c r="L33" s="32"/>
+      <c r="L33" s="32">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="M33" s="29"/>
       <c r="N33" s="29"/>
       <c r="O33" s="29"/>
@@ -2837,7 +3038,10 @@
       <c r="I34" s="30"/>
       <c r="J34" s="29"/>
       <c r="K34" s="29"/>
-      <c r="L34" s="32"/>
+      <c r="L34" s="32">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="M34" s="29"/>
       <c r="N34" s="29"/>
       <c r="O34" s="29"/>
@@ -2854,7 +3058,10 @@
       <c r="I35" s="30"/>
       <c r="J35" s="29"/>
       <c r="K35" s="29"/>
-      <c r="L35" s="32"/>
+      <c r="L35" s="32" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
       <c r="M35" s="29"/>
       <c r="N35" s="29"/>
       <c r="O35" s="29"/>
@@ -2891,7 +3098,10 @@
         <v>29</v>
       </c>
       <c r="K36" s="29"/>
-      <c r="L36" s="32"/>
+      <c r="L36" s="32">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="M36" s="29"/>
       <c r="N36" s="29"/>
       <c r="O36" s="29"/>
@@ -2924,7 +3134,10 @@
       <c r="I37" s="30"/>
       <c r="J37" s="29"/>
       <c r="K37" s="29"/>
-      <c r="L37" s="32"/>
+      <c r="L37" s="32">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="M37" s="29"/>
       <c r="N37" s="29"/>
       <c r="O37" s="29"/>
@@ -2957,7 +3170,10 @@
       <c r="I38" s="30"/>
       <c r="J38" s="29"/>
       <c r="K38" s="29"/>
-      <c r="L38" s="32"/>
+      <c r="L38" s="32">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="M38" s="29"/>
       <c r="N38" s="29"/>
       <c r="O38" s="29"/>
@@ -2990,7 +3206,10 @@
       <c r="I39" s="30"/>
       <c r="J39" s="29"/>
       <c r="K39" s="29"/>
-      <c r="L39" s="32"/>
+      <c r="L39" s="32">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="M39" s="29"/>
       <c r="N39" s="29"/>
       <c r="O39" s="29"/>
@@ -3007,6 +3226,10 @@
       <c r="I40" s="30"/>
       <c r="J40" s="29"/>
       <c r="K40" s="29"/>
+      <c r="L40" s="32" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="41" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="57" t="s">
@@ -3040,6 +3263,10 @@
         <v>39</v>
       </c>
       <c r="K41" s="29"/>
+      <c r="L41" s="32">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="42" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="57" t="s">
@@ -3069,6 +3296,10 @@
       <c r="I42" s="30"/>
       <c r="J42" s="29"/>
       <c r="K42" s="29"/>
+      <c r="L42" s="32">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="43" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="57" t="s">
@@ -3098,6 +3329,10 @@
       <c r="I43" s="30"/>
       <c r="J43" s="29"/>
       <c r="K43" s="29"/>
+      <c r="L43" s="32">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="44" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="57" t="s">
@@ -3127,6 +3362,10 @@
       <c r="I44" s="30"/>
       <c r="J44" s="29"/>
       <c r="K44" s="29"/>
+      <c r="L44" s="32">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="33"/>
@@ -3140,7 +3379,10 @@
       <c r="I45" s="30"/>
       <c r="J45" s="29"/>
       <c r="K45" s="29"/>
-      <c r="L45" s="32"/>
+      <c r="L45" s="32" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
       <c r="M45" s="29"/>
       <c r="N45" s="29"/>
       <c r="O45" s="29"/>
@@ -3177,7 +3419,10 @@
         <v>59</v>
       </c>
       <c r="K46" s="29"/>
-      <c r="L46" s="32"/>
+      <c r="L46" s="32">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="M46" s="29"/>
       <c r="N46" s="29"/>
       <c r="O46" s="29"/>
@@ -3210,7 +3455,10 @@
       <c r="I47" s="30"/>
       <c r="J47" s="29"/>
       <c r="K47" s="29"/>
-      <c r="L47" s="32"/>
+      <c r="L47" s="32">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="M47" s="29"/>
       <c r="N47" s="29"/>
       <c r="O47" s="29"/>
@@ -3243,7 +3491,10 @@
       <c r="I48" s="30"/>
       <c r="J48" s="29"/>
       <c r="K48" s="29"/>
-      <c r="L48" s="32"/>
+      <c r="L48" s="32">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="M48" s="29"/>
       <c r="N48" s="29"/>
       <c r="O48" s="29"/>
@@ -3276,7 +3527,10 @@
       <c r="I49" s="30"/>
       <c r="J49" s="29"/>
       <c r="K49" s="29"/>
-      <c r="L49" s="32"/>
+      <c r="L49" s="32">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="M49" s="29"/>
       <c r="N49" s="29"/>
       <c r="O49" s="29"/>
@@ -3293,7 +3547,10 @@
       <c r="I50" s="30"/>
       <c r="J50" s="29"/>
       <c r="K50" s="29"/>
-      <c r="L50" s="32"/>
+      <c r="L50" s="32" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
       <c r="M50" s="29"/>
       <c r="N50" s="29"/>
       <c r="O50" s="29"/>
@@ -3330,7 +3587,10 @@
         <v>90</v>
       </c>
       <c r="K51" s="29"/>
-      <c r="L51" s="32"/>
+      <c r="L51" s="32">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
       <c r="M51" s="29"/>
       <c r="N51" s="29"/>
       <c r="O51" s="29"/>
@@ -3363,7 +3623,10 @@
       <c r="I52" s="30"/>
       <c r="J52" s="29"/>
       <c r="K52" s="29"/>
-      <c r="L52" s="32"/>
+      <c r="L52" s="32">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
       <c r="M52" s="29"/>
       <c r="N52" s="29"/>
       <c r="O52" s="29"/>
@@ -3396,7 +3659,10 @@
       <c r="I53" s="30"/>
       <c r="J53" s="29"/>
       <c r="K53" s="29"/>
-      <c r="L53" s="32"/>
+      <c r="L53" s="32">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
       <c r="M53" s="29"/>
       <c r="N53" s="29"/>
       <c r="O53" s="29"/>
@@ -3430,7 +3696,10 @@
       <c r="I54" s="30"/>
       <c r="J54" s="29"/>
       <c r="K54" s="29"/>
-      <c r="L54" s="32"/>
+      <c r="L54" s="32">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
       <c r="M54" s="29"/>
       <c r="N54" s="29"/>
       <c r="O54" s="29"/>
@@ -3448,7 +3717,10 @@
       <c r="I55" s="30"/>
       <c r="J55" s="29"/>
       <c r="K55" s="29"/>
-      <c r="L55" s="32"/>
+      <c r="L55" s="32" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
       <c r="M55" s="29"/>
       <c r="N55" s="29"/>
       <c r="O55" s="29"/>
@@ -3486,7 +3758,10 @@
         <v>130</v>
       </c>
       <c r="K56" s="29"/>
-      <c r="L56" s="32"/>
+      <c r="L56" s="32">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
       <c r="M56" s="29"/>
       <c r="N56" s="29"/>
       <c r="O56" s="29"/>
@@ -3520,7 +3795,10 @@
       <c r="I57" s="30"/>
       <c r="J57" s="29"/>
       <c r="K57" s="29"/>
-      <c r="L57" s="32"/>
+      <c r="L57" s="32">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
       <c r="M57" s="29"/>
       <c r="N57" s="29"/>
       <c r="O57" s="29"/>
@@ -3554,7 +3832,10 @@
       <c r="I58" s="30"/>
       <c r="J58" s="29"/>
       <c r="K58" s="29"/>
-      <c r="L58" s="32"/>
+      <c r="L58" s="32">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
       <c r="M58" s="29"/>
       <c r="N58" s="29"/>
       <c r="O58" s="29"/>
@@ -3588,7 +3869,10 @@
       <c r="I59" s="30"/>
       <c r="J59" s="29"/>
       <c r="K59" s="29"/>
-      <c r="L59" s="32"/>
+      <c r="L59" s="32">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
       <c r="M59" s="29"/>
       <c r="N59" s="29"/>
       <c r="O59" s="29"/>
@@ -3606,7 +3890,10 @@
       <c r="I60" s="30"/>
       <c r="J60" s="29"/>
       <c r="K60" s="29"/>
-      <c r="L60" s="32"/>
+      <c r="L60" s="32" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
       <c r="M60" s="29"/>
       <c r="N60" s="29"/>
       <c r="O60" s="29"/>
@@ -3644,7 +3931,10 @@
         <v>180</v>
       </c>
       <c r="K61" s="29"/>
-      <c r="L61" s="32"/>
+      <c r="L61" s="32">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
       <c r="M61" s="29"/>
       <c r="N61" s="29"/>
       <c r="O61" s="29"/>
@@ -3678,7 +3968,10 @@
       <c r="I62" s="30"/>
       <c r="J62" s="29"/>
       <c r="K62" s="29"/>
-      <c r="L62" s="32"/>
+      <c r="L62" s="32">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
       <c r="M62" s="29"/>
       <c r="N62" s="29"/>
       <c r="O62" s="29"/>
@@ -3712,7 +4005,10 @@
       <c r="I63" s="30"/>
       <c r="J63" s="29"/>
       <c r="K63" s="29"/>
-      <c r="L63" s="32"/>
+      <c r="L63" s="32">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
       <c r="M63" s="29"/>
       <c r="N63" s="29"/>
       <c r="O63" s="29"/>
@@ -3746,7 +4042,10 @@
       <c r="I64" s="30"/>
       <c r="J64" s="29"/>
       <c r="K64" s="29"/>
-      <c r="L64" s="32"/>
+      <c r="L64" s="32">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
       <c r="M64" s="29"/>
       <c r="N64" s="29"/>
       <c r="O64" s="29"/>
@@ -3763,7 +4062,10 @@
       <c r="I65" s="30"/>
       <c r="J65" s="29"/>
       <c r="K65" s="29"/>
-      <c r="L65" s="32"/>
+      <c r="L65" s="32" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
       <c r="M65" s="29"/>
       <c r="N65" s="29"/>
       <c r="O65" s="29"/>
@@ -3800,7 +4102,10 @@
         <v>250</v>
       </c>
       <c r="K66" s="29"/>
-      <c r="L66" s="32"/>
+      <c r="L66" s="32">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
       <c r="M66" s="29"/>
       <c r="N66" s="29"/>
       <c r="O66" s="29"/>
@@ -3833,7 +4138,10 @@
       <c r="I67" s="30"/>
       <c r="J67" s="29"/>
       <c r="K67" s="29"/>
-      <c r="L67" s="32"/>
+      <c r="L67" s="32">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
       <c r="M67" s="29"/>
       <c r="N67" s="29"/>
       <c r="O67" s="29"/>
@@ -3866,7 +4174,10 @@
       <c r="I68" s="30"/>
       <c r="J68" s="29"/>
       <c r="K68" s="29"/>
-      <c r="L68" s="32"/>
+      <c r="L68" s="32">
+        <f t="shared" ref="L68:L97" si="2">MATCH(A68,M:M,0)</f>
+        <v>14</v>
+      </c>
       <c r="M68" s="29"/>
       <c r="N68" s="29"/>
       <c r="O68" s="29"/>
@@ -3899,7 +4210,10 @@
       <c r="I69" s="30"/>
       <c r="J69" s="29"/>
       <c r="K69" s="29"/>
-      <c r="L69" s="32"/>
+      <c r="L69" s="32">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
       <c r="M69" s="29"/>
       <c r="N69" s="29"/>
       <c r="O69" s="29"/>
@@ -3916,7 +4230,10 @@
       <c r="I70" s="30"/>
       <c r="J70" s="29"/>
       <c r="K70" s="29"/>
-      <c r="L70" s="32"/>
+      <c r="L70" s="32" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
       <c r="M70" s="29"/>
       <c r="N70" s="29"/>
       <c r="O70" s="29"/>
@@ -3953,7 +4270,10 @@
         <v>350</v>
       </c>
       <c r="K71" s="29"/>
-      <c r="L71" s="32"/>
+      <c r="L71" s="32">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
       <c r="M71" s="29"/>
       <c r="N71" s="29"/>
       <c r="O71" s="29"/>
@@ -3986,7 +4306,10 @@
       <c r="I72" s="30"/>
       <c r="J72" s="29"/>
       <c r="K72" s="29"/>
-      <c r="L72" s="32"/>
+      <c r="L72" s="32">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
       <c r="M72" s="29"/>
       <c r="N72" s="29"/>
       <c r="O72" s="29"/>
@@ -4019,7 +4342,10 @@
       <c r="I73" s="30"/>
       <c r="J73" s="29"/>
       <c r="K73" s="29"/>
-      <c r="L73" s="32"/>
+      <c r="L73" s="32">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
       <c r="M73" s="29"/>
       <c r="N73" s="29"/>
       <c r="O73" s="29"/>
@@ -4052,7 +4378,10 @@
       <c r="I74" s="30"/>
       <c r="J74" s="29"/>
       <c r="K74" s="29"/>
-      <c r="L74" s="32"/>
+      <c r="L74" s="32">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
       <c r="M74" s="29"/>
       <c r="N74" s="29"/>
       <c r="O74" s="29"/>
@@ -4069,7 +4398,10 @@
       <c r="I75" s="30"/>
       <c r="J75" s="29"/>
       <c r="K75" s="29"/>
-      <c r="L75" s="32"/>
+      <c r="L75" s="32" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
       <c r="M75" s="29"/>
       <c r="N75" s="29"/>
       <c r="O75" s="29"/>
@@ -4106,7 +4438,10 @@
         <v>501</v>
       </c>
       <c r="K76" s="29"/>
-      <c r="L76" s="32"/>
+      <c r="L76" s="32">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
       <c r="M76" s="29"/>
       <c r="N76" s="29"/>
       <c r="O76" s="29"/>
@@ -4139,6 +4474,10 @@
       <c r="I77" s="30"/>
       <c r="J77" s="29"/>
       <c r="K77" s="29"/>
+      <c r="L77" s="32">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
     </row>
     <row r="78" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="57" t="s">
@@ -4168,6 +4507,10 @@
       <c r="I78" s="30"/>
       <c r="J78" s="29"/>
       <c r="K78" s="29"/>
+      <c r="L78" s="32">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
     </row>
     <row r="79" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="57" t="s">
@@ -4197,6 +4540,10 @@
       <c r="I79" s="30"/>
       <c r="J79" s="29"/>
       <c r="K79" s="29"/>
+      <c r="L79" s="32">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="33"/>
@@ -4210,6 +4557,10 @@
       <c r="I80" s="30"/>
       <c r="J80" s="29"/>
       <c r="K80" s="29"/>
+      <c r="L80" s="32" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="81" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="57" t="s">
@@ -4243,7 +4594,10 @@
         <v>748</v>
       </c>
       <c r="K81" s="37"/>
-      <c r="L81" s="2"/>
+      <c r="L81" s="32">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -4276,7 +4630,10 @@
       <c r="I82" s="30"/>
       <c r="J82" s="29"/>
       <c r="K82" s="29"/>
-      <c r="L82" s="32"/>
+      <c r="L82" s="32">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
       <c r="M82" s="29"/>
       <c r="N82" s="29"/>
       <c r="O82" s="29"/>
@@ -4309,7 +4666,10 @@
       <c r="I83" s="30"/>
       <c r="J83" s="29"/>
       <c r="K83" s="29"/>
-      <c r="L83" s="32"/>
+      <c r="L83" s="32">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
       <c r="M83" s="29"/>
       <c r="N83" s="29"/>
       <c r="O83" s="29"/>
@@ -4342,7 +4702,10 @@
       <c r="I84" s="30"/>
       <c r="J84" s="29"/>
       <c r="K84" s="29"/>
-      <c r="L84" s="32"/>
+      <c r="L84" s="32">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
       <c r="M84" s="29"/>
       <c r="N84" s="29"/>
       <c r="O84" s="29"/>
@@ -4359,7 +4722,10 @@
       <c r="I85" s="30"/>
       <c r="J85" s="29"/>
       <c r="K85" s="29"/>
-      <c r="L85" s="32"/>
+      <c r="L85" s="32" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
       <c r="M85" s="29"/>
       <c r="N85" s="29"/>
       <c r="O85" s="29"/>
@@ -4396,7 +4762,10 @@
         <v>999</v>
       </c>
       <c r="K86" s="29"/>
-      <c r="L86" s="32"/>
+      <c r="L86" s="32">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
       <c r="M86" s="29"/>
       <c r="N86" s="29"/>
       <c r="O86" s="29"/>
@@ -4429,7 +4798,10 @@
       <c r="I87" s="30"/>
       <c r="J87" s="29"/>
       <c r="K87" s="29"/>
-      <c r="L87" s="32"/>
+      <c r="L87" s="32">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
       <c r="M87" s="29"/>
       <c r="N87" s="29"/>
       <c r="O87" s="29"/>
@@ -4462,7 +4834,10 @@
       <c r="I88" s="30"/>
       <c r="J88" s="29"/>
       <c r="K88" s="29"/>
-      <c r="L88" s="32"/>
+      <c r="L88" s="32">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
       <c r="M88" s="29"/>
       <c r="N88" s="29"/>
       <c r="O88" s="29"/>
@@ -4495,7 +4870,10 @@
       <c r="I89" s="30"/>
       <c r="J89" s="29"/>
       <c r="K89" s="29"/>
-      <c r="L89" s="32"/>
+      <c r="L89" s="32">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
       <c r="M89" s="29"/>
       <c r="N89" s="29"/>
       <c r="O89" s="29"/>
@@ -4512,7 +4890,10 @@
       <c r="I90" s="30"/>
       <c r="J90" s="29"/>
       <c r="K90" s="29"/>
-      <c r="L90" s="32"/>
+      <c r="L90" s="32" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
       <c r="M90" s="29"/>
       <c r="N90" s="29"/>
       <c r="O90" s="29"/>
@@ -4549,7 +4930,10 @@
         <v>1501</v>
       </c>
       <c r="K91" s="29"/>
-      <c r="L91" s="32"/>
+      <c r="L91" s="32">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
       <c r="M91" s="29"/>
       <c r="N91" s="29"/>
       <c r="O91" s="29"/>
@@ -4582,7 +4966,10 @@
       <c r="I92" s="30"/>
       <c r="J92" s="29"/>
       <c r="K92" s="29"/>
-      <c r="L92" s="32"/>
+      <c r="L92" s="32">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
       <c r="M92" s="29"/>
       <c r="N92" s="29"/>
       <c r="O92" s="29"/>
@@ -4615,7 +5002,10 @@
       <c r="I93" s="30"/>
       <c r="J93" s="29"/>
       <c r="K93" s="29"/>
-      <c r="L93" s="32"/>
+      <c r="L93" s="32">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
       <c r="M93" s="29"/>
       <c r="N93" s="29"/>
       <c r="O93" s="29"/>
@@ -4648,7 +5038,10 @@
       <c r="I94" s="30"/>
       <c r="J94" s="29"/>
       <c r="K94" s="29"/>
-      <c r="L94" s="32"/>
+      <c r="L94" s="32">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
       <c r="M94" s="29"/>
       <c r="N94" s="29"/>
       <c r="O94" s="29"/>
@@ -4665,26 +5058,29 @@
       <c r="I95" s="30"/>
       <c r="J95" s="29"/>
       <c r="K95" s="29"/>
-      <c r="L95" s="32"/>
+      <c r="L95" s="32" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
       <c r="M95" s="29"/>
       <c r="N95" s="29"/>
       <c r="O95" s="29"/>
     </row>
     <row r="96" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="A96" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="B96" t="s">
+        <v>74</v>
+      </c>
+      <c r="C96" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="D96" s="13">
+        <v>3</v>
+      </c>
+      <c r="E96" t="s">
         <v>104</v>
-      </c>
-      <c r="B96" t="s">
-        <v>74</v>
-      </c>
-      <c r="C96" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="D96" s="13">
-        <v>3</v>
-      </c>
-      <c r="E96" t="s">
-        <v>106</v>
       </c>
       <c r="F96" s="50">
         <v>1399201</v>
@@ -4693,26 +5089,29 @@
       <c r="I96" s="30"/>
       <c r="J96" s="29"/>
       <c r="K96" s="29"/>
-      <c r="L96" s="32"/>
+      <c r="L96" s="32">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
       <c r="M96" s="29"/>
       <c r="N96" s="29"/>
       <c r="O96" s="29"/>
     </row>
     <row r="97" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="A97" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="B97" t="s">
+        <v>74</v>
+      </c>
+      <c r="C97" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="D97" s="13">
+        <v>3</v>
+      </c>
+      <c r="E97" t="s">
         <v>103</v>
-      </c>
-      <c r="B97" t="s">
-        <v>74</v>
-      </c>
-      <c r="C97" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="D97" s="13">
-        <v>3</v>
-      </c>
-      <c r="E97" t="s">
-        <v>105</v>
       </c>
       <c r="F97" s="50">
         <v>1237101</v>
@@ -4722,7 +5121,10 @@
       <c r="I97" s="30"/>
       <c r="J97" s="29"/>
       <c r="K97" s="29"/>
-      <c r="L97" s="32"/>
+      <c r="L97" s="32">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
       <c r="M97" s="29"/>
       <c r="N97" s="29"/>
       <c r="O97" s="29"/>

--- a/deployment/Omaha_Cal_Info_GP03FLMB_00003.xlsx
+++ b/deployment/Omaha_Cal_Info_GP03FLMB_00003.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27127"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2955" yWindow="2460" windowWidth="24900" windowHeight="12615"/>
+    <workbookView xWindow="9900" yWindow="4520" windowWidth="24900" windowHeight="12620"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -22,7 +17,12 @@
     <definedName name="_FilterDatabase_0">[1]Moorings!#REF!</definedName>
     <definedName name="_FilterDatabase_0_0_0">[1]Moorings!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -667,7 +667,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="215">
+  <cellStyleXfs count="217">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -883,6 +883,8 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1064,7 +1066,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="215">
+  <cellStyles count="217">
     <cellStyle name="Comma 2" xfId="63"/>
     <cellStyle name="Comma 2 2" xfId="64"/>
     <cellStyle name="Comma 2 2 2" xfId="65"/>
@@ -1116,6 +1118,7 @@
     <cellStyle name="Followed Hyperlink" xfId="209" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="211" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="213" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="132" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="134" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="136" builtinId="8" hidden="1"/>
@@ -1157,6 +1160,7 @@
     <cellStyle name="Hyperlink" xfId="208" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="210" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="212" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink 2" xfId="9"/>
     <cellStyle name="Hyperlink 2 2" xfId="72"/>
     <cellStyle name="Hyperlink 2 3" xfId="73"/>
@@ -1295,7 +1299,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Read Me"/>
@@ -1354,7 +1358,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1389,7 +1393,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1601,29 +1605,29 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="22" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="22" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="8" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.42578125" style="8" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="8" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" style="8" customWidth="1"/>
-    <col min="15" max="16384" width="8.85546875" style="8"/>
+    <col min="8" max="8" width="11.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.5" style="8" customWidth="1"/>
+    <col min="13" max="13" width="13.5" style="8" customWidth="1"/>
+    <col min="14" max="14" width="12.5" style="8" customWidth="1"/>
+    <col min="15" max="16384" width="8.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="12" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="12" customFormat="1" ht="28">
       <c r="A1" s="60" t="s">
         <v>72</v>
       </c>
@@ -1661,7 +1665,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="20" customFormat="1">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -1680,7 +1684,9 @@
       <c r="F2" s="23">
         <v>0.89236111111111116</v>
       </c>
-      <c r="G2" s="18"/>
+      <c r="G2" s="18">
+        <v>42554</v>
+      </c>
       <c r="H2" s="7" t="s">
         <v>70</v>
       </c>
@@ -1703,12 +1709,12 @@
         <v>-144.39833333333334</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="20" customFormat="1">
       <c r="E3" s="41"/>
       <c r="F3" s="42"/>
       <c r="G3" s="41"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="H5" s="59"/>
       <c r="I5" s="59"/>
     </row>
@@ -1734,23 +1740,23 @@
       <selection pane="bottomRight" activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="13" customWidth="1"/>
+    <col min="1" max="1" width="28.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="13" customWidth="1"/>
     <col min="5" max="5" width="11" style="13" customWidth="1"/>
     <col min="6" max="6" width="13" style="2" customWidth="1"/>
-    <col min="7" max="7" width="29.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="31" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="13" customWidth="1"/>
-    <col min="10" max="13" width="10.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" style="13" customWidth="1"/>
+    <col min="10" max="13" width="10.6640625" style="2" customWidth="1"/>
     <col min="14" max="14" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.85546875" style="2"/>
+    <col min="15" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="16" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="16" customFormat="1" ht="28">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -1785,7 +1791,7 @@
       <c r="N1" s="28"/>
       <c r="O1" s="28"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2" s="29"/>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
@@ -1802,7 +1808,7 @@
       <c r="N2" s="29"/>
       <c r="O2" s="29"/>
     </row>
-    <row r="3" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="A3" s="57" t="s">
         <v>55</v>
       </c>
@@ -1848,7 +1854,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="A4" s="57" t="s">
         <v>55</v>
       </c>
@@ -1892,7 +1898,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="A5" s="57" t="s">
         <v>55</v>
       </c>
@@ -1934,7 +1940,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="A6" s="57" t="s">
         <v>55</v>
       </c>
@@ -1976,7 +1982,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="A7" s="57" t="s">
         <v>55</v>
       </c>
@@ -2018,7 +2024,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="A8" s="57" t="s">
         <v>55</v>
       </c>
@@ -2060,7 +2066,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="A9" s="57" t="s">
         <v>55</v>
       </c>
@@ -2104,7 +2110,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="A10" s="57" t="s">
         <v>55</v>
       </c>
@@ -2148,7 +2154,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="A11" s="57" t="s">
         <v>55</v>
       </c>
@@ -2192,7 +2198,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="A12" s="57" t="s">
         <v>55</v>
       </c>
@@ -2236,7 +2242,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17">
       <c r="A13" s="33"/>
       <c r="B13" s="33"/>
       <c r="C13" s="44"/>
@@ -2262,7 +2268,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
       <c r="A14" s="57" t="s">
         <v>56</v>
       </c>
@@ -2308,7 +2314,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17">
       <c r="A15" s="57" t="s">
         <v>56</v>
       </c>
@@ -2350,7 +2356,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17">
       <c r="A16" s="57" t="s">
         <v>56</v>
       </c>
@@ -2392,7 +2398,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17">
       <c r="A17" s="57" t="s">
         <v>56</v>
       </c>
@@ -2434,7 +2440,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17">
       <c r="A18" s="57" t="s">
         <v>56</v>
       </c>
@@ -2476,7 +2482,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17">
       <c r="A19" s="57" t="s">
         <v>56</v>
       </c>
@@ -2518,7 +2524,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17">
       <c r="A20" s="57" t="s">
         <v>56</v>
       </c>
@@ -2562,7 +2568,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17">
       <c r="A21" s="33"/>
       <c r="B21" s="33"/>
       <c r="C21" s="44"/>
@@ -2582,7 +2588,7 @@
       <c r="N21" s="29"/>
       <c r="O21" s="29"/>
     </row>
-    <row r="22" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17">
       <c r="A22" s="31" t="s">
         <v>47</v>
       </c>
@@ -2622,7 +2628,7 @@
       <c r="N22" s="29"/>
       <c r="O22" s="29"/>
     </row>
-    <row r="23" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17">
       <c r="A23" s="33" t="s">
         <v>47</v>
       </c>
@@ -2660,7 +2666,7 @@
       <c r="N23" s="29"/>
       <c r="O23" s="29"/>
     </row>
-    <row r="24" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17">
       <c r="A24" s="33" t="s">
         <v>47</v>
       </c>
@@ -2696,7 +2702,7 @@
       <c r="N24" s="29"/>
       <c r="O24" s="29"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17">
       <c r="A25" s="33"/>
       <c r="B25" s="33"/>
       <c r="C25" s="44"/>
@@ -2716,7 +2722,7 @@
       <c r="N25" s="29"/>
       <c r="O25" s="29"/>
     </row>
-    <row r="26" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17">
       <c r="A26" s="57" t="s">
         <v>57</v>
       </c>
@@ -2756,7 +2762,7 @@
       <c r="N26" s="29"/>
       <c r="O26" s="29"/>
     </row>
-    <row r="27" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17">
       <c r="A27" s="57" t="s">
         <v>57</v>
       </c>
@@ -2792,7 +2798,7 @@
       <c r="N27" s="29"/>
       <c r="O27" s="29"/>
     </row>
-    <row r="28" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17">
       <c r="A28" s="57" t="s">
         <v>57</v>
       </c>
@@ -2828,7 +2834,7 @@
       <c r="N28" s="29"/>
       <c r="O28" s="29"/>
     </row>
-    <row r="29" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17">
       <c r="A29" s="57" t="s">
         <v>57</v>
       </c>
@@ -2864,7 +2870,7 @@
       <c r="N29" s="29"/>
       <c r="O29" s="29"/>
     </row>
-    <row r="30" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17">
       <c r="A30" s="57" t="s">
         <v>57</v>
       </c>
@@ -2902,7 +2908,7 @@
       <c r="N30" s="29"/>
       <c r="O30" s="29"/>
     </row>
-    <row r="31" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17">
       <c r="A31" s="57" t="s">
         <v>57</v>
       </c>
@@ -2938,7 +2944,7 @@
       <c r="N31" s="29"/>
       <c r="O31" s="29"/>
     </row>
-    <row r="32" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17">
       <c r="A32" s="57" t="s">
         <v>57</v>
       </c>
@@ -2974,7 +2980,7 @@
       <c r="N32" s="29"/>
       <c r="O32" s="29"/>
     </row>
-    <row r="33" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15">
       <c r="A33" s="57" t="s">
         <v>57</v>
       </c>
@@ -3010,7 +3016,7 @@
       <c r="N33" s="29"/>
       <c r="O33" s="29"/>
     </row>
-    <row r="34" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15">
       <c r="A34" s="57" t="s">
         <v>57</v>
       </c>
@@ -3046,7 +3052,7 @@
       <c r="N34" s="29"/>
       <c r="O34" s="29"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15">
       <c r="A35" s="33"/>
       <c r="B35" s="33"/>
       <c r="C35" s="44"/>
@@ -3066,7 +3072,7 @@
       <c r="N35" s="29"/>
       <c r="O35" s="29"/>
     </row>
-    <row r="36" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15">
       <c r="A36" s="57" t="s">
         <v>58</v>
       </c>
@@ -3106,7 +3112,7 @@
       <c r="N36" s="29"/>
       <c r="O36" s="29"/>
     </row>
-    <row r="37" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15">
       <c r="A37" s="57" t="s">
         <v>58</v>
       </c>
@@ -3142,7 +3148,7 @@
       <c r="N37" s="29"/>
       <c r="O37" s="29"/>
     </row>
-    <row r="38" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15">
       <c r="A38" s="57" t="s">
         <v>58</v>
       </c>
@@ -3178,7 +3184,7 @@
       <c r="N38" s="29"/>
       <c r="O38" s="29"/>
     </row>
-    <row r="39" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15">
       <c r="A39" s="57" t="s">
         <v>58</v>
       </c>
@@ -3214,7 +3220,7 @@
       <c r="N39" s="29"/>
       <c r="O39" s="29"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15">
       <c r="A40" s="33"/>
       <c r="B40" s="33"/>
       <c r="C40" s="44"/>
@@ -3231,7 +3237,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15">
       <c r="A41" s="57" t="s">
         <v>59</v>
       </c>
@@ -3268,7 +3274,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15">
       <c r="A42" s="57" t="s">
         <v>59</v>
       </c>
@@ -3301,7 +3307,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15">
       <c r="A43" s="57" t="s">
         <v>59</v>
       </c>
@@ -3334,7 +3340,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15">
       <c r="A44" s="57" t="s">
         <v>59</v>
       </c>
@@ -3367,7 +3373,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15">
       <c r="A45" s="33"/>
       <c r="B45" s="33"/>
       <c r="C45" s="44"/>
@@ -3387,7 +3393,7 @@
       <c r="N45" s="29"/>
       <c r="O45" s="29"/>
     </row>
-    <row r="46" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15">
       <c r="A46" s="57" t="s">
         <v>60</v>
       </c>
@@ -3427,7 +3433,7 @@
       <c r="N46" s="29"/>
       <c r="O46" s="29"/>
     </row>
-    <row r="47" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15">
       <c r="A47" s="57" t="s">
         <v>60</v>
       </c>
@@ -3463,7 +3469,7 @@
       <c r="N47" s="29"/>
       <c r="O47" s="29"/>
     </row>
-    <row r="48" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15">
       <c r="A48" s="57" t="s">
         <v>60</v>
       </c>
@@ -3499,7 +3505,7 @@
       <c r="N48" s="29"/>
       <c r="O48" s="29"/>
     </row>
-    <row r="49" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16">
       <c r="A49" s="57" t="s">
         <v>60</v>
       </c>
@@ -3535,7 +3541,7 @@
       <c r="N49" s="29"/>
       <c r="O49" s="29"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16">
       <c r="A50" s="33"/>
       <c r="B50" s="33"/>
       <c r="C50" s="44"/>
@@ -3555,7 +3561,7 @@
       <c r="N50" s="29"/>
       <c r="O50" s="29"/>
     </row>
-    <row r="51" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16">
       <c r="A51" s="57" t="s">
         <v>61</v>
       </c>
@@ -3595,7 +3601,7 @@
       <c r="N51" s="29"/>
       <c r="O51" s="29"/>
     </row>
-    <row r="52" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16">
       <c r="A52" s="57" t="s">
         <v>61</v>
       </c>
@@ -3631,7 +3637,7 @@
       <c r="N52" s="29"/>
       <c r="O52" s="29"/>
     </row>
-    <row r="53" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16">
       <c r="A53" s="57" t="s">
         <v>61</v>
       </c>
@@ -3668,7 +3674,7 @@
       <c r="O53" s="29"/>
       <c r="P53"/>
     </row>
-    <row r="54" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16">
       <c r="A54" s="57" t="s">
         <v>61</v>
       </c>
@@ -3705,7 +3711,7 @@
       <c r="O54" s="29"/>
       <c r="P54"/>
     </row>
-    <row r="55" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16">
       <c r="A55" s="33"/>
       <c r="B55" s="33"/>
       <c r="C55" s="44"/>
@@ -3726,7 +3732,7 @@
       <c r="O55" s="29"/>
       <c r="P55"/>
     </row>
-    <row r="56" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16">
       <c r="A56" s="57" t="s">
         <v>62</v>
       </c>
@@ -3767,7 +3773,7 @@
       <c r="O56" s="29"/>
       <c r="P56"/>
     </row>
-    <row r="57" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16">
       <c r="A57" s="57" t="s">
         <v>62</v>
       </c>
@@ -3804,7 +3810,7 @@
       <c r="O57" s="29"/>
       <c r="P57"/>
     </row>
-    <row r="58" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16">
       <c r="A58" s="57" t="s">
         <v>62</v>
       </c>
@@ -3841,7 +3847,7 @@
       <c r="O58" s="29"/>
       <c r="P58"/>
     </row>
-    <row r="59" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16">
       <c r="A59" s="57" t="s">
         <v>62</v>
       </c>
@@ -3878,7 +3884,7 @@
       <c r="O59" s="29"/>
       <c r="P59"/>
     </row>
-    <row r="60" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16">
       <c r="A60" s="33"/>
       <c r="B60" s="33"/>
       <c r="C60" s="44"/>
@@ -3899,7 +3905,7 @@
       <c r="O60" s="29"/>
       <c r="P60"/>
     </row>
-    <row r="61" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16">
       <c r="A61" s="57" t="s">
         <v>63</v>
       </c>
@@ -3940,7 +3946,7 @@
       <c r="O61" s="29"/>
       <c r="P61"/>
     </row>
-    <row r="62" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16">
       <c r="A62" s="57" t="s">
         <v>63</v>
       </c>
@@ -3977,7 +3983,7 @@
       <c r="O62" s="29"/>
       <c r="P62"/>
     </row>
-    <row r="63" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16">
       <c r="A63" s="57" t="s">
         <v>63</v>
       </c>
@@ -4014,7 +4020,7 @@
       <c r="O63" s="29"/>
       <c r="P63"/>
     </row>
-    <row r="64" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16">
       <c r="A64" s="57" t="s">
         <v>63</v>
       </c>
@@ -4050,7 +4056,7 @@
       <c r="N64" s="29"/>
       <c r="O64" s="29"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15">
       <c r="A65" s="33"/>
       <c r="B65" s="33"/>
       <c r="C65" s="44"/>
@@ -4070,7 +4076,7 @@
       <c r="N65" s="29"/>
       <c r="O65" s="29"/>
     </row>
-    <row r="66" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15">
       <c r="A66" s="57" t="s">
         <v>64</v>
       </c>
@@ -4110,7 +4116,7 @@
       <c r="N66" s="29"/>
       <c r="O66" s="29"/>
     </row>
-    <row r="67" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15">
       <c r="A67" s="57" t="s">
         <v>64</v>
       </c>
@@ -4146,7 +4152,7 @@
       <c r="N67" s="29"/>
       <c r="O67" s="29"/>
     </row>
-    <row r="68" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15">
       <c r="A68" s="57" t="s">
         <v>64</v>
       </c>
@@ -4182,7 +4188,7 @@
       <c r="N68" s="29"/>
       <c r="O68" s="29"/>
     </row>
-    <row r="69" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15">
       <c r="A69" s="57" t="s">
         <v>64</v>
       </c>
@@ -4218,7 +4224,7 @@
       <c r="N69" s="29"/>
       <c r="O69" s="29"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15">
       <c r="A70" s="33"/>
       <c r="B70" s="33"/>
       <c r="C70" s="44"/>
@@ -4238,7 +4244,7 @@
       <c r="N70" s="29"/>
       <c r="O70" s="29"/>
     </row>
-    <row r="71" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15">
       <c r="A71" s="57" t="s">
         <v>65</v>
       </c>
@@ -4278,7 +4284,7 @@
       <c r="N71" s="29"/>
       <c r="O71" s="29"/>
     </row>
-    <row r="72" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15">
       <c r="A72" s="57" t="s">
         <v>65</v>
       </c>
@@ -4314,7 +4320,7 @@
       <c r="N72" s="29"/>
       <c r="O72" s="29"/>
     </row>
-    <row r="73" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15">
       <c r="A73" s="57" t="s">
         <v>65</v>
       </c>
@@ -4350,7 +4356,7 @@
       <c r="N73" s="29"/>
       <c r="O73" s="29"/>
     </row>
-    <row r="74" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15">
       <c r="A74" s="57" t="s">
         <v>65</v>
       </c>
@@ -4386,7 +4392,7 @@
       <c r="N74" s="29"/>
       <c r="O74" s="29"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15">
       <c r="A75" s="33"/>
       <c r="B75" s="33"/>
       <c r="C75" s="44"/>
@@ -4406,7 +4412,7 @@
       <c r="N75" s="29"/>
       <c r="O75" s="29"/>
     </row>
-    <row r="76" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15">
       <c r="A76" s="57" t="s">
         <v>66</v>
       </c>
@@ -4446,7 +4452,7 @@
       <c r="N76" s="29"/>
       <c r="O76" s="29"/>
     </row>
-    <row r="77" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15">
       <c r="A77" s="57" t="s">
         <v>66</v>
       </c>
@@ -4479,7 +4485,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15">
       <c r="A78" s="57" t="s">
         <v>66</v>
       </c>
@@ -4512,7 +4518,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15">
       <c r="A79" s="57" t="s">
         <v>66</v>
       </c>
@@ -4545,7 +4551,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15">
       <c r="A80" s="33"/>
       <c r="B80" s="33"/>
       <c r="C80" s="44"/>
@@ -4562,7 +4568,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="81" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" s="1" customFormat="1">
       <c r="A81" s="57" t="s">
         <v>69</v>
       </c>
@@ -4602,7 +4608,7 @@
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
     </row>
-    <row r="82" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15">
       <c r="A82" s="57" t="s">
         <v>69</v>
       </c>
@@ -4638,7 +4644,7 @@
       <c r="N82" s="29"/>
       <c r="O82" s="29"/>
     </row>
-    <row r="83" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15">
       <c r="A83" s="57" t="s">
         <v>69</v>
       </c>
@@ -4674,7 +4680,7 @@
       <c r="N83" s="29"/>
       <c r="O83" s="29"/>
     </row>
-    <row r="84" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15">
       <c r="A84" s="57" t="s">
         <v>69</v>
       </c>
@@ -4710,7 +4716,7 @@
       <c r="N84" s="29"/>
       <c r="O84" s="29"/>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15">
       <c r="A85" s="38"/>
       <c r="B85" s="38"/>
       <c r="C85" s="44"/>
@@ -4730,7 +4736,7 @@
       <c r="N85" s="29"/>
       <c r="O85" s="29"/>
     </row>
-    <row r="86" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15">
       <c r="A86" s="57" t="s">
         <v>68</v>
       </c>
@@ -4770,7 +4776,7 @@
       <c r="N86" s="29"/>
       <c r="O86" s="29"/>
     </row>
-    <row r="87" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15">
       <c r="A87" s="57" t="s">
         <v>68</v>
       </c>
@@ -4806,7 +4812,7 @@
       <c r="N87" s="29"/>
       <c r="O87" s="29"/>
     </row>
-    <row r="88" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15">
       <c r="A88" s="57" t="s">
         <v>68</v>
       </c>
@@ -4842,7 +4848,7 @@
       <c r="N88" s="29"/>
       <c r="O88" s="29"/>
     </row>
-    <row r="89" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15">
       <c r="A89" s="57" t="s">
         <v>68</v>
       </c>
@@ -4878,7 +4884,7 @@
       <c r="N89" s="29"/>
       <c r="O89" s="29"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15">
       <c r="A90" s="33"/>
       <c r="B90" s="33"/>
       <c r="C90" s="44"/>
@@ -4898,7 +4904,7 @@
       <c r="N90" s="29"/>
       <c r="O90" s="29"/>
     </row>
-    <row r="91" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15">
       <c r="A91" s="57" t="s">
         <v>67</v>
       </c>
@@ -4938,7 +4944,7 @@
       <c r="N91" s="29"/>
       <c r="O91" s="29"/>
     </row>
-    <row r="92" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15">
       <c r="A92" s="57" t="s">
         <v>67</v>
       </c>
@@ -4974,7 +4980,7 @@
       <c r="N92" s="29"/>
       <c r="O92" s="29"/>
     </row>
-    <row r="93" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15">
       <c r="A93" s="57" t="s">
         <v>67</v>
       </c>
@@ -5010,7 +5016,7 @@
       <c r="N93" s="29"/>
       <c r="O93" s="29"/>
     </row>
-    <row r="94" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15">
       <c r="A94" s="57" t="s">
         <v>67</v>
       </c>
@@ -5046,7 +5052,7 @@
       <c r="N94" s="29"/>
       <c r="O94" s="29"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15">
       <c r="A95" s="33"/>
       <c r="B95" s="33"/>
       <c r="C95" s="44"/>
@@ -5066,7 +5072,7 @@
       <c r="N95" s="29"/>
       <c r="O95" s="29"/>
     </row>
-    <row r="96" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15">
       <c r="A96" s="29" t="s">
         <v>106</v>
       </c>
@@ -5097,7 +5103,7 @@
       <c r="N96" s="29"/>
       <c r="O96" s="29"/>
     </row>
-    <row r="97" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15">
       <c r="A97" s="29" t="s">
         <v>105</v>
       </c>
@@ -5129,10 +5135,10 @@
       <c r="N97" s="29"/>
       <c r="O97" s="29"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15">
       <c r="I98" s="2"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15">
       <c r="A99" s="29"/>
       <c r="B99" s="29"/>
       <c r="C99" s="29"/>
@@ -5149,7 +5155,7 @@
       <c r="N99" s="29"/>
       <c r="O99" s="29"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15">
       <c r="A100" s="29"/>
       <c r="B100" s="29"/>
       <c r="C100" s="29"/>
@@ -5166,7 +5172,7 @@
       <c r="N100" s="29"/>
       <c r="O100" s="29"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15">
       <c r="A101" s="29"/>
       <c r="B101" s="29"/>
       <c r="C101" s="29"/>
@@ -5186,5 +5192,10 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>